--- a/DP_pbrem.xlsx
+++ b/DP_pbrem.xlsx
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,8 +531,14 @@
         <f>(200000000000000000000)*G4*D4*C4</f>
         <v>6.3425563199746811E-7</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3">
+        <f>LOG10(A4)</f>
+        <v>-9</v>
+      </c>
+      <c r="J4" s="3">
+        <f>LOG10(H4:H16)</f>
+        <v>-6.1977356676859516</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
@@ -560,8 +566,14 @@
         <f>(200000000000000000000)*G5*D5*C5</f>
         <v>5.8876186990052069E-4</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3">
+        <f t="shared" ref="I5:I15" si="0">LOG10(A5)</f>
+        <v>-8.3010299956639813</v>
+      </c>
+      <c r="J5" s="3">
+        <f>LOG10(H5:H17)</f>
+        <v>-3.230060324057813</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7">
@@ -589,8 +601,14 @@
         <f>(200000000000000000000)*G6*D6*C6</f>
         <v>5.8227586512551088E-3</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="J6" s="3">
+        <f>LOG10(H6:H18)</f>
+        <v>-2.2348712106820092</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7">
@@ -613,11 +631,17 @@
         <v>1.9280063000000001E-16</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H7:H14" si="0">(200000000000000000000)*G7*D7*C7</f>
+        <f t="shared" ref="H7:H16" si="1">(200000000000000000000)*G7*D7*C7</f>
         <v>4.225280469284618</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.3010299956639813</v>
+      </c>
+      <c r="J7" s="3">
+        <f>LOG10(H7:H19)</f>
+        <v>0.62585554221349415</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7">
@@ -642,11 +666,17 @@
         <v>7.7120254000000002E-16</v>
       </c>
       <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>83.64623206474397</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>83.64623206474397</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>-7</v>
+      </c>
+      <c r="J8" s="3">
+        <f>LOG10(H8:H20)</f>
+        <v>1.9224463824729994</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7">
@@ -671,11 +701,17 @@
         <v>1.9280062999999999E-14</v>
       </c>
       <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>36186.987624884467</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>36186.987624884467</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+        <v>-6.3010299956639813</v>
+      </c>
+      <c r="J9" s="3">
+        <f>LOG10(H9:H21)</f>
+        <v>4.5585524318967776</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7">
@@ -700,123 +736,201 @@
         <v>7.7120253999999996E-14</v>
       </c>
       <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>505052.80677111587</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>505052.80677111587</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+        <v>-6</v>
+      </c>
+      <c r="J10" s="3">
+        <f>LOG10(H10:H22)</f>
+        <v>5.7033367889905877</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7">
-        <v>5.0000000000000004E-6</v>
+        <f>(SQRT(10))*0.000001</f>
+        <v>3.1622776601683792E-6</v>
       </c>
       <c r="B11" s="8">
         <v>250</v>
       </c>
-      <c r="C11" s="9">
-        <v>6.6017930424900001E-3</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
-        <v>1.6220277084500002E-5</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1.9280062999999999E-12</v>
-      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>2545659.7154433774</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="B12" s="8">
+        <v>250</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6.6017930424900001E-3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.6220277084500002E-5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.9280062999999999E-12</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>2545659.7154433774</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.3010299956639813</v>
+      </c>
+      <c r="J12" s="3">
+        <f>LOG10(H12:H23)</f>
+        <v>6.4058003499923881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B12" s="8">
-        <v>250</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B13" s="8">
+        <v>250</v>
+      </c>
+      <c r="C13" s="9">
         <v>4.275748735E-5</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <v>4.0550692711200004E-6</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>7.7120253999999996E-12</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>65949.365696675741</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>65949.365696675741</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B13" s="11">
-        <v>250</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1.6220277084499999E-7</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1.9280063000000001E-10</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+        <v>-5</v>
+      </c>
+      <c r="J13" s="3">
+        <f>LOG10(H13:H24)</f>
+        <v>4.8192106228428342</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="B14" s="11">
-        <v>250</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>4.0550692711200002E-8</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>7.7120254000000003E-10</v>
-      </c>
+      <c r="A14" s="7">
+        <f>(SQRT(10))*0.00001</f>
+        <v>3.1622776601683795E-5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>250</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B15" s="11">
+        <v>250</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.6220277084499999E-7</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.9280063000000001E-10</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.3010299956639813</v>
+      </c>
+      <c r="J15" s="3" t="e">
+        <f t="shared" ref="J15:J16" si="2">LOG10(H15:H25)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="B16" s="11">
+        <v>250</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.0550692711200002E-8</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>7.7120254000000003E-10</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f>LOG10(A16)</f>
+        <v>-4</v>
+      </c>
+      <c r="J16" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DP_pbrem.xlsx
+++ b/DP_pbrem.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Constant mass</t>
   </si>
@@ -46,16 +44,29 @@
   </si>
   <si>
     <t>No. A' Detected (pbrem)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +82,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -107,17 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -136,11 +154,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,527 +475,680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>250</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>4.1121210000000002E-8</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>405.50692711200003</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>1.10113570562E-4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>7.7120254000000005E-20</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f>(200000000000000000000)*G4*D4*C4</f>
         <v>6.3425563199746811E-7</v>
       </c>
-      <c r="I4" s="3">
-        <f>LOG10(A4)</f>
-        <v>-9</v>
-      </c>
-      <c r="J4" s="3">
-        <f>LOG10(H4:H16)</f>
-        <v>-6.1977356676859516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="I4" s="1">
+        <f>2*100000000000000000000</f>
+        <v>2E+20</v>
+      </c>
+      <c r="J4" s="12">
+        <f>G4*C4</f>
+        <v>3.1712781599873405E-27</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SQRT(I4*J4*(1-(J4)))</f>
+        <v>7.9640167754561398E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <f>K4/SQRT(1000)</f>
+        <v>2.5184432334231164E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>250</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1.52686708E-6</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>16.220277084500001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>2.7407579646799999E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1.9280062999999999E-18</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>(200000000000000000000)*G5*D5*C5</f>
         <v>5.8876186990052069E-4</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" ref="I5:I15" si="0">LOG10(A5)</f>
-        <v>-8.3010299956639813</v>
-      </c>
-      <c r="J5" s="3">
-        <f>LOG10(H5:H17)</f>
-        <v>-3.230060324057813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="7">
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I16" si="0">2*100000000000000000000</f>
+        <v>2E+20</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" ref="J5:J16" si="1">G5*C5</f>
+        <v>2.9438093495026039E-24</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K16" si="2">SQRT(I5*J5*(1-(J5)))</f>
+        <v>2.426441571314918E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L16" si="3">K5/SQRT(1000)</f>
+        <v>7.6730819746730246E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9">
         <v>1E-8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>500</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>3.7751163600000001E-6</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <v>4.0550692711199998</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>1.08134188932E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>7.7120254000000005E-18</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f>(200000000000000000000)*G6*D6*C6</f>
         <v>5.8227586512551088E-3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="J6" s="3">
-        <f>LOG10(H6:H18)</f>
-        <v>-2.2348712106820092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7">
+        <v>2E+20</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9113793256275548E-23</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6307002635768034E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4130392974949888E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>250</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>1.095764176E-4</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.16220277084500001</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7">
+      <c r="F7" s="7">
+        <v>0.17467918990699999</v>
+      </c>
+      <c r="G7" s="5">
         <v>1.9280063000000001E-16</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" ref="H7:H16" si="1">(200000000000000000000)*G7*D7*C7</f>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H16" si="4">(200000000000000000000)*G7*D7*C7</f>
         <v>4.225280469284618</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>-7.3010299956639813</v>
-      </c>
-      <c r="J7" s="3">
-        <f>LOG10(H7:H19)</f>
-        <v>0.62585554221349415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7">
+        <v>2E+20</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>2.112640234642309E-20</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0555487027274779</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5002157420231965E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>500</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>5.4231040307999999E-4</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>4.0550692711200001E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>0.18522125399799999</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>7.7120254000000002E-16</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
+        <f t="shared" si="4"/>
+        <v>83.64623206474397</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>2E+20</v>
+      </c>
+      <c r="J8" s="12">
         <f t="shared" si="1"/>
-        <v>83.64623206474397</v>
-      </c>
-      <c r="I8" s="3">
+        <v>4.1823116032371982E-19</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1458314036911901</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28921658331559064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>250</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9.3845615610499995E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.6220277084499999E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.20167676904E-14</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.9280062999999999E-14</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="4"/>
+        <v>36186.987624884467</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>-7</v>
-      </c>
-      <c r="J8" s="3">
-        <f>LOG10(H8:H20)</f>
-        <v>1.9224463824729994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="B9" s="8">
+        <v>2E+20</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8093493812442232E-16</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>190.22877706825659</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>6.015562120440987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10" s="6">
         <v>250</v>
       </c>
-      <c r="C9" s="9">
-        <v>9.3845615610499995E-3</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1.6220277084499999E-3</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.20167676904E-14</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1.9280062999999999E-14</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="C10" s="7">
+        <v>3.2744498401879998E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.0550692711199999E-4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.08521414206E-56</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7.7120253999999996E-14</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="4"/>
+        <v>505052.80677111587</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>2E+20</v>
+      </c>
+      <c r="J10" s="12">
         <f t="shared" si="1"/>
-        <v>36186.987624884467</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>-6.3010299956639813</v>
-      </c>
-      <c r="J9" s="3">
-        <f>LOG10(H9:H21)</f>
-        <v>4.5585524318967776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B10" s="8">
-        <v>250</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3.2744498401879998E-2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.0550692711199999E-4</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2.08521414206E-56</v>
-      </c>
-      <c r="G10" s="7">
-        <v>7.7120253999999996E-14</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>505052.80677111587</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="J10" s="3">
-        <f>LOG10(H10:H22)</f>
-        <v>5.7033367889905877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7">
+        <v>2.5252640338555794E-15</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>710.67067392084959</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>22.473379958767097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9">
         <f>(SQRT(10))*0.000001</f>
         <v>3.1622776601683792E-6</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>250</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6">
+      <c r="C11" s="7">
+        <v>2.3824755644730002E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.0550632702700002E-5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7.7120368000000003E-13</v>
+      </c>
+      <c r="H11" s="4">
+        <f>(200000000000000000000)*G11*D11*C11</f>
+        <v>3674747.84566331</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>2E+20</v>
+      </c>
+      <c r="J11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7">
+        <v>1.8373739228316551E-14</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>1916.9631831788638</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>60.619698495317856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>250</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>6.6017930424900001E-3</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <v>1.6220277084500002E-5</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>1.9280062999999999E-12</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
+        <f t="shared" si="4"/>
+        <v>2545659.7154433774</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>2E+20</v>
+      </c>
+      <c r="J12" s="12">
         <f t="shared" si="1"/>
-        <v>2545659.7154433774</v>
-      </c>
-      <c r="I12" s="3">
+        <v>1.2728298577216888E-14</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>1595.5123676873661</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>50.45453116860115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B13" s="6">
+        <v>250</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4.275748735E-5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.0550692711200004E-6</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7.7120253999999996E-12</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="4"/>
+        <v>65949.365696675741</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>-5.3010299956639813</v>
-      </c>
-      <c r="J12" s="3">
-        <f>LOG10(H12:H23)</f>
-        <v>6.4058003499923881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="7">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B13" s="8">
-        <v>250</v>
-      </c>
-      <c r="C13" s="9">
-        <v>4.275748735E-5</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.0550692711200004E-6</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>7.7120253999999996E-12</v>
-      </c>
-      <c r="H13" s="6">
+        <v>2E+20</v>
+      </c>
+      <c r="J13" s="12">
         <f t="shared" si="1"/>
-        <v>65949.365696675741</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="J13" s="3">
-        <f>LOG10(H13:H24)</f>
-        <v>4.8192106228428342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7">
+        <v>3.2974682848337868E-16</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>256.8060857859013</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1209214807604013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9">
         <f>(SQRT(10))*0.00001</f>
         <v>3.1622776601683795E-5</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>250</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.0550632702700002E-7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>7.7120367999999994E-11</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>2E+20</v>
+      </c>
+      <c r="J14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="10">
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>250</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
         <v>1.6220277084499999E-7</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>1.9280063000000001E-10</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
+        <f>(200000000000000000000)*G15*D15*C15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>2E+20</v>
+      </c>
+      <c r="J15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>250</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.0550692711200002E-8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7.7120254000000003E-10</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>-4.3010299956639813</v>
-      </c>
-      <c r="J15" s="3" t="e">
-        <f t="shared" ref="J15:J16" si="2">LOG10(H15:H25)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="B16" s="11">
-        <v>250</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>4.0550692711200002E-8</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>7.7120254000000003E-10</v>
-      </c>
-      <c r="H16" s="6">
+        <v>2E+20</v>
+      </c>
+      <c r="J16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="3">
-        <f>LOG10(A16)</f>
-        <v>-4</v>
-      </c>
-      <c r="J16" s="3" t="e">
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="13"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="13"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="13"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DP_pbrem.xlsx
+++ b/DP_pbrem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Constant mass</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Standard Error</t>
+  </si>
+  <si>
+    <t>DP_Meson</t>
+  </si>
+  <si>
+    <t>BR(eta --&gt; dp)</t>
   </si>
 </sst>
 </file>
@@ -131,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,13 +178,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,10 +506,11 @@
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1">
+    <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -543,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -585,8 +598,18 @@
         <f>K4/SQRT(1000)</f>
         <v>2.5184432334231164E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="1">
+        <f>L4/H4</f>
+        <v>39.707069300934009</v>
+      </c>
+      <c r="N4" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>5.0000000000000001E-9</v>
       </c>
@@ -613,23 +636,33 @@
         <v>5.8876186990052069E-4</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I16" si="0">2*100000000000000000000</f>
+        <f t="shared" ref="I5:I18" si="0">2*100000000000000000000</f>
         <v>2E+20</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" ref="J5:J16" si="1">G5*C5</f>
+        <f t="shared" ref="J5:J18" si="1">G5*C5</f>
         <v>2.9438093495026039E-24</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K16" si="2">SQRT(I5*J5*(1-(J5)))</f>
+        <f t="shared" ref="K5:K18" si="2">SQRT(I5*J5*(1-(J5)))</f>
         <v>2.426441571314918E-2</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L16" si="3">K5/SQRT(1000)</f>
+        <f t="shared" ref="L5:L18" si="3">K5/SQRT(1000)</f>
         <v>7.6730819746730246E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="1">
+        <f t="shared" ref="M5:M18" si="4">L5/H5</f>
+        <v>1.3032572873595731</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>5.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="9">
         <v>1E-8</v>
       </c>
@@ -671,8 +704,18 @@
         <f t="shared" si="3"/>
         <v>2.4130392974949888E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.414415132417493</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="9">
         <v>4.9999999999999998E-8</v>
       </c>
@@ -695,7 +738,7 @@
         <v>1.9280063000000001E-16</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H7:H16" si="4">(200000000000000000000)*G7*D7*C7</f>
+        <f t="shared" ref="H7:H18" si="5">(200000000000000000000)*G7*D7*C7</f>
         <v>4.225280469284618</v>
       </c>
       <c r="I7" s="1">
@@ -714,8 +757,18 @@
         <f t="shared" si="3"/>
         <v>6.5002157420231965E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5384104769555682E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>4.9999999999999998E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="9">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -738,7 +791,7 @@
         <v>7.7120254000000002E-16</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.64623206474397</v>
       </c>
       <c r="I8" s="1">
@@ -757,8 +810,18 @@
         <f t="shared" si="3"/>
         <v>0.28921658331559064</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4576163943849953E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="O8" s="9">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="9">
         <v>4.9999999999999998E-7</v>
       </c>
@@ -781,7 +844,7 @@
         <v>1.9280062999999999E-14</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36186.987624884467</v>
       </c>
       <c r="I9" s="1">
@@ -800,8 +863,18 @@
         <f t="shared" si="3"/>
         <v>6.015562120440987</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6623550384460036E-4</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.66E-4</v>
+      </c>
+      <c r="O9" s="9">
+        <v>4.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="9">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -824,7 +897,7 @@
         <v>7.7120253999999996E-14</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>505052.80677111587</v>
       </c>
       <c r="I10" s="1">
@@ -843,76 +916,96 @@
         <f t="shared" si="3"/>
         <v>22.473379958767097</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="9">
-        <f>(SQRT(10))*0.000001</f>
-        <v>3.1622776601683792E-6</v>
+      <c r="M10" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4497089527020045E-5</v>
+      </c>
+      <c r="N10" s="12">
+        <v>4.4496999999999998E-5</v>
+      </c>
+      <c r="O10" s="9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2">
+        <v>1.7783E-6</v>
       </c>
       <c r="B11" s="6">
         <v>250</v>
       </c>
       <c r="C11" s="7">
-        <v>2.3824755644730002E-2</v>
+        <v>4.9750653207300002E-2</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
-        <v>4.0550632702700002E-5</v>
+      <c r="E11" s="7">
+        <v>1.2822958021300001E-4</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>8.2721145351699998E-177</v>
       </c>
       <c r="G11" s="5">
-        <v>7.7120368000000003E-13</v>
+        <v>2.4388130000000001E-13</v>
       </c>
       <c r="H11" s="4">
-        <f>(200000000000000000000)*G11*D11*C11</f>
-        <v>3674747.84566331</v>
+        <f t="shared" si="5"/>
+        <v>2426650.7960090986</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>2E+20</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" si="1"/>
-        <v>1.8373739228316551E-14</v>
+        <f t="shared" ref="J11" si="6">G11*C11</f>
+        <v>1.2133253980045494E-14</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
-        <v>1916.9631831788638</v>
+        <f t="shared" ref="K11" si="7">SQRT(I11*J11*(1-(J11)))</f>
+        <v>1557.7710987205628</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="3"/>
-        <v>60.619698495317856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <f t="shared" ref="L11" si="8">K11/SQRT(1000)</f>
+        <v>49.261047451399868</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0300014955763403E-5</v>
+      </c>
+      <c r="N11" s="12">
+        <v>2.0299999999999999E-5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1.7783E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="9">
-        <v>5.0000000000000004E-6</v>
+        <f>(SQRT(10))*0.000001</f>
+        <v>3.1622776601683792E-6</v>
       </c>
       <c r="B12" s="6">
         <v>250</v>
       </c>
       <c r="C12" s="7">
-        <v>6.6017930424900001E-3</v>
+        <v>2.3824755644730002E-2</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>1.6220277084500002E-5</v>
-      </c>
-      <c r="F12" s="7">
+        <v>4.0550632702700002E-5</v>
+      </c>
+      <c r="F12" s="5">
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>1.9280062999999999E-12</v>
+        <v>7.7120368000000003E-13</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="4"/>
-        <v>2545659.7154433774</v>
+        <f>(200000000000000000000)*G12*D12*C12</f>
+        <v>3674747.84566331</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
@@ -920,42 +1013,53 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="1"/>
-        <v>1.2728298577216888E-14</v>
+        <v>1.8373739228316551E-14</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
-        <v>1595.5123676873661</v>
+        <v>1916.9631831788638</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
-        <v>50.45453116860115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>60.619698495317856</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6496287919960859E-5</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1.64963E-5</v>
+      </c>
+      <c r="O12" s="9">
+        <f>(SQRT(10))*0.000001</f>
+        <v>3.1622776601683792E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="9">
-        <v>1.0000000000000001E-5</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="B13" s="6">
         <v>250</v>
       </c>
       <c r="C13" s="7">
-        <v>4.275748735E-5</v>
+        <v>6.6017930424900001E-3</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="5">
-        <v>4.0550692711200004E-6</v>
+        <v>1.6220277084500002E-5</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>7.7120253999999996E-12</v>
+        <v>1.9280062999999999E-12</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="4"/>
-        <v>65949.365696675741</v>
+        <f t="shared" si="5"/>
+        <v>2545659.7154433774</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
@@ -963,41 +1067,52 @@
       </c>
       <c r="J13" s="12">
         <f t="shared" si="1"/>
-        <v>3.2974682848337868E-16</v>
+        <v>1.2728298577216888E-14</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>256.8060857859013</v>
+        <v>1595.5123676873661</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>8.1209214807604013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>50.45453116860115</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.981982543170091E-5</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1.98198E-5</v>
+      </c>
+      <c r="O13" s="9">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="9">
-        <f>(SQRT(10))*0.00001</f>
-        <v>3.1622776601683795E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="6">
         <v>250</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7">
+        <v>4.275748735E-5</v>
+      </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" s="5">
-        <v>4.0550632702700002E-7</v>
+        <v>4.0550692711200004E-6</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>7.7120367999999994E-11</v>
+        <v>7.7120253999999996E-12</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>65949.365696675741</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
@@ -1005,22 +1120,32 @@
       </c>
       <c r="J14" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2974682848337868E-16</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>256.8060857859013</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B15" s="7">
+        <v>8.1209214807604013</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2313873522470811E-4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.2E-4</v>
+      </c>
+      <c r="O14" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2">
+        <v>1.7782999999999999E-5</v>
+      </c>
+      <c r="B15" s="6">
         <v>250</v>
       </c>
       <c r="C15" s="7">
@@ -1030,40 +1155,50 @@
         <v>1</v>
       </c>
       <c r="E15" s="5">
-        <v>1.6220277084499999E-7</v>
+        <v>1.2822958021300001E-6</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>1.9280063000000001E-10</v>
+        <v>2.4388129999999999E-11</v>
       </c>
       <c r="H15" s="4">
-        <f>(200000000000000000000)*G15*D15*C15</f>
-        <v>0</v>
+        <v>3.30447462541E-6</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
         <v>2E+20</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J15" si="9">G15*C15</f>
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K15" si="10">SQRT(I15*J15*(1-(J15)))</f>
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <f t="shared" ref="L15" si="11">K15/SQRT(1000)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.7782999999999999E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="B16" s="7">
+        <f>(SQRT(10))*0.00001</f>
+        <v>3.1622776601683795E-5</v>
+      </c>
+      <c r="B16" s="6">
         <v>250</v>
       </c>
       <c r="C16" s="7">
@@ -1073,16 +1208,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>4.0550692711200002E-8</v>
+        <v>4.0550632702700002E-7</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>7.7120254000000003E-10</v>
+        <v>7.7120367999999994E-11</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I16" s="1">
@@ -1101,51 +1236,226 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" s="13"/>
+      <c r="M16" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <f>(SQRT(10))*0.00001</f>
+        <v>3.1622776601683795E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="9">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>250</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.6220277084499999E-7</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1.9280063000000001E-10</v>
+      </c>
+      <c r="H17" s="4">
+        <f>(200000000000000000000)*G17*D17*C17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>2E+20</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="B18" s="7">
+        <v>250</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.0550692711200002E-8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7.7120254000000003E-10</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>2E+20</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="18" customFormat="1">
+      <c r="A20" s="2">
+        <v>1.7783E-6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.7724478130789999E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.2822958021300001E-4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8.2721145351699998E-177</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.6229486708600001E-4</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="9">
+        <f>(SQRT(10))*0.00001</f>
+        <v>3.1622776601683795E-5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="13"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="5:7">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="9">
+        <f>(SQRT(10))*0.000001</f>
+        <v>3.1622776601683792E-6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.4842249076199999E-3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.0550632702700002E-5</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5.1321030746299999E-4</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="5:7">
+      <c r="F23" s="14"/>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="5:7">
+    <row r="25" spans="1:15">
       <c r="E25" s="13"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="5:7">
+    <row r="26" spans="1:15">
       <c r="E26" s="13"/>
-      <c r="F26" s="16"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DP_pbrem.xlsx
+++ b/DP_pbrem.xlsx
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +191,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +496,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,7 +512,7 @@
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -555,6 +561,7 @@
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8">
@@ -598,16 +605,7 @@
         <f>K4/SQRT(1000)</f>
         <v>2.5184432334231164E-5</v>
       </c>
-      <c r="M4" s="1">
-        <f>L4/H4</f>
-        <v>39.707069300934009</v>
-      </c>
-      <c r="N4" s="1">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1.0000000000000001E-9</v>
-      </c>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8">
@@ -651,16 +649,7 @@
         <f t="shared" ref="L5:L18" si="3">K5/SQRT(1000)</f>
         <v>7.6730819746730246E-4</v>
       </c>
-      <c r="M5" s="1">
-        <f t="shared" ref="M5:M18" si="4">L5/H5</f>
-        <v>1.3032572873595731</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="O5" s="8">
-        <v>5.0000000000000001E-9</v>
-      </c>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -704,16 +693,7 @@
         <f t="shared" si="3"/>
         <v>2.4130392974949888E-3</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" si="4"/>
-        <v>0.414415132417493</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1E-8</v>
-      </c>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -738,7 +718,7 @@
         <v>1.9280063000000001E-16</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H7:H18" si="5">(200000000000000000000)*G7*D7*C7</f>
+        <f t="shared" ref="H7:H18" si="4">(200000000000000000000)*G7*D7*C7</f>
         <v>4.225280469284618</v>
       </c>
       <c r="I7" s="1">
@@ -757,16 +737,7 @@
         <f t="shared" si="3"/>
         <v>6.5002157420231965E-2</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5384104769555682E-2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O7" s="9">
-        <v>4.9999999999999998E-8</v>
-      </c>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9">
@@ -791,7 +762,7 @@
         <v>7.7120254000000002E-16</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>83.64623206474397</v>
       </c>
       <c r="I8" s="1">
@@ -810,16 +781,7 @@
         <f t="shared" si="3"/>
         <v>0.28921658331559064</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4576163943849953E-3</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="O8" s="9">
-        <v>9.9999999999999995E-8</v>
-      </c>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9">
@@ -844,7 +806,7 @@
         <v>1.9280062999999999E-14</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36186.987624884467</v>
       </c>
       <c r="I9" s="1">
@@ -863,16 +825,7 @@
         <f t="shared" si="3"/>
         <v>6.015562120440987</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6623550384460036E-4</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1.66E-4</v>
-      </c>
-      <c r="O9" s="9">
-        <v>4.9999999999999998E-7</v>
-      </c>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="9">
@@ -897,7 +850,7 @@
         <v>7.7120253999999996E-14</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>505052.80677111587</v>
       </c>
       <c r="I10" s="1">
@@ -916,16 +869,8 @@
         <f t="shared" si="3"/>
         <v>22.473379958767097</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="4"/>
-        <v>4.4497089527020045E-5</v>
-      </c>
-      <c r="N10" s="12">
-        <v>4.4496999999999998E-5</v>
-      </c>
-      <c r="O10" s="9">
-        <v>9.9999999999999995E-7</v>
-      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2">
@@ -950,7 +895,7 @@
         <v>2.4388130000000001E-13</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2426650.7960090986</v>
       </c>
       <c r="I11" s="1">
@@ -958,27 +903,19 @@
         <v>2E+20</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" ref="J11" si="6">G11*C11</f>
+        <f t="shared" ref="J11" si="5">G11*C11</f>
         <v>1.2133253980045494E-14</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ref="K11" si="7">SQRT(I11*J11*(1-(J11)))</f>
+        <f t="shared" ref="K11" si="6">SQRT(I11*J11*(1-(J11)))</f>
         <v>1557.7710987205628</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11" si="8">K11/SQRT(1000)</f>
+        <f t="shared" ref="L11" si="7">K11/SQRT(1000)</f>
         <v>49.261047451399868</v>
       </c>
-      <c r="M11" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0300014955763403E-5</v>
-      </c>
-      <c r="N11" s="12">
-        <v>2.0299999999999999E-5</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1.7783E-6</v>
-      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="9">
@@ -1023,17 +960,8 @@
         <f t="shared" si="3"/>
         <v>60.619698495317856</v>
       </c>
-      <c r="M12" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6496287919960859E-5</v>
-      </c>
-      <c r="N12" s="12">
-        <v>1.64963E-5</v>
-      </c>
-      <c r="O12" s="9">
-        <f>(SQRT(10))*0.000001</f>
-        <v>3.1622776601683792E-6</v>
-      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="9">
@@ -1058,7 +986,7 @@
         <v>1.9280062999999999E-12</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2545659.7154433774</v>
       </c>
       <c r="I13" s="1">
@@ -1077,16 +1005,8 @@
         <f t="shared" si="3"/>
         <v>50.45453116860115</v>
       </c>
-      <c r="M13" s="1">
-        <f t="shared" si="4"/>
-        <v>1.981982543170091E-5</v>
-      </c>
-      <c r="N13" s="12">
-        <v>1.98198E-5</v>
-      </c>
-      <c r="O13" s="9">
-        <v>5.0000000000000004E-6</v>
-      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="9">
@@ -1111,7 +1031,7 @@
         <v>7.7120253999999996E-12</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65949.365696675741</v>
       </c>
       <c r="I14" s="1">
@@ -1130,16 +1050,7 @@
         <f t="shared" si="3"/>
         <v>8.1209214807604013</v>
       </c>
-      <c r="M14" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2313873522470811E-4</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1.2E-4</v>
-      </c>
-      <c r="O14" s="9">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2">
@@ -1171,27 +1082,18 @@
         <v>2E+20</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" ref="J15" si="9">G15*C15</f>
+        <f t="shared" ref="J15" si="8">G15*C15</f>
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15" si="10">SQRT(I15*J15*(1-(J15)))</f>
+        <f t="shared" ref="K15" si="9">SQRT(I15*J15*(1-(J15)))</f>
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ref="L15" si="11">K15/SQRT(1000)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1.7782999999999999E-5</v>
-      </c>
+        <f t="shared" ref="L15" si="10">K15/SQRT(1000)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="9">
@@ -1217,7 +1119,7 @@
         <v>7.7120367999999994E-11</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I16" s="1">
@@ -1236,17 +1138,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <f>(SQRT(10))*0.00001</f>
-        <v>3.1622776601683795E-5</v>
-      </c>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="9">
@@ -1290,16 +1182,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>5.0000000000000002E-5</v>
-      </c>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="9">
@@ -1324,7 +1207,7 @@
         <v>7.7120254000000003E-10</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I18" s="1">
@@ -1343,16 +1226,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1E-4</v>
-      </c>
+      <c r="O18" s="20"/>
     </row>
     <row r="20" spans="1:15" s="18" customFormat="1">
       <c r="A20" s="2">
@@ -1392,10 +1266,18 @@
       <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="5">
+        <v>4.0550632702700002E-7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>5.1321030746309997E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="9">
